--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albert\Desktop\b\KomponenKomputer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Scrummaster" sheetId="4" r:id="rId1"/>
+    <sheet name="Sprint 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint 3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Nama Backlog</t>
   </si>
@@ -61,13 +67,88 @@
   </si>
   <si>
     <t>Burndown Chart Sprint 1</t>
+  </si>
+  <si>
+    <t>Kamis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumat </t>
+  </si>
+  <si>
+    <t>Sabtu</t>
+  </si>
+  <si>
+    <t>Penjelasan Secara Umum : Awal Sejarah Komputer</t>
+  </si>
+  <si>
+    <t>Penjelasan Secara Umum : Jenis Hardware</t>
+  </si>
+  <si>
+    <t>Penjelasan Secara Umum : Pengertian Brainware</t>
+  </si>
+  <si>
+    <t>Penjelasan Secara Umum : Jenis Software</t>
+  </si>
+  <si>
+    <t>Awal Sejarah Komputer : Alat Hitung</t>
+  </si>
+  <si>
+    <t>Brainware : Komponen Brainware</t>
+  </si>
+  <si>
+    <t>Golongan Komputer</t>
+  </si>
+  <si>
+    <t>Contoh Hardware : Input Device</t>
+  </si>
+  <si>
+    <t>Scrummaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1 : </t>
+  </si>
+  <si>
+    <t>David Tjin</t>
+  </si>
+  <si>
+    <t>(3 hari)</t>
+  </si>
+  <si>
+    <t>Sprint 2 :</t>
+  </si>
+  <si>
+    <t>Albert Wijaya</t>
+  </si>
+  <si>
+    <t>(4 hari)</t>
+  </si>
+  <si>
+    <t>Sprint 3 :</t>
+  </si>
+  <si>
+    <t>Ismail Gohzali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 4 : </t>
+  </si>
+  <si>
+    <t>Ricky Wijaya</t>
+  </si>
+  <si>
+    <t>Sprint 5 :</t>
+  </si>
+  <si>
+    <t>(1 harI)</t>
+  </si>
+  <si>
+    <t>Burndown Chart Sprint 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +179,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -113,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -443,6 +541,175 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -453,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -493,6 +760,74 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,6 +846,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -520,38 +864,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,6 +937,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -596,7 +973,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$10:$J$10</c:f>
+              <c:f>'Sprint 1'!$H$10:$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -613,7 +990,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$17:$J$17</c:f>
+              <c:f>'Sprint 1'!$H$17:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -639,22 +1016,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43250432"/>
-        <c:axId val="43251968"/>
+        <c:axId val="953704624"/>
+        <c:axId val="953695376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43250432"/>
+        <c:axId val="953704624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43251968"/>
+        <c:crossAx val="953695376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -662,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43251968"/>
+        <c:axId val="953695376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +1050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43250432"/>
+        <c:crossAx val="953704624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -695,6 +1072,829 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$H$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jumat </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$H$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="953708432"/>
+        <c:axId val="953560048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="953708432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953560048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="953560048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953708432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -713,6 +1913,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -773,7 +2008,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -808,7 +2043,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,10 +2252,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:S3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,32 +2377,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -1096,13 +2444,13 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="12" t="s">
         <v>1</v>
       </c>
@@ -1122,13 +2470,13 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="8">
         <v>20</v>
       </c>
@@ -1148,20 +2496,20 @@
     </row>
     <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="15">
         <v>30</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="16">
         <v>30</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="17">
         <v>25</v>
       </c>
       <c r="K12" s="1"/>
@@ -1174,13 +2522,13 @@
     </row>
     <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="9">
         <v>35</v>
       </c>
@@ -1200,13 +2548,13 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="8">
         <v>35</v>
       </c>
@@ -1225,13 +2573,13 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="8">
         <v>15</v>
       </c>
@@ -1243,13 +2591,13 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="8">
         <v>40</v>
       </c>
@@ -1300,14 +2648,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
     <mergeCell ref="B3:L4"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1315,19 +2663,380 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+    </row>
+    <row r="3" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+    </row>
+    <row r="4" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+    </row>
+    <row r="5" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+    </row>
+    <row r="6" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+    </row>
+    <row r="7" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="18">
+        <v>20</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="21">
+        <v>35</v>
+      </c>
+      <c r="I12" s="22">
+        <v>30</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="21">
+        <v>30</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="21">
+        <v>30</v>
+      </c>
+      <c r="I14" s="22">
+        <v>20</v>
+      </c>
+      <c r="J14" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
+        <v>35</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <v>30</v>
+      </c>
+      <c r="J16" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="32">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33">
+        <v>0</v>
+      </c>
+      <c r="J18" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="26">
+        <f>SUM(H11:H18)</f>
+        <v>115</v>
+      </c>
+      <c r="I19" s="26">
+        <f t="shared" ref="I19:J19" si="0">SUM(I11:I18)</f>
+        <v>115</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Nama Backlog</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Burndown Chart Sprint 2</t>
+  </si>
+  <si>
+    <t>Minggu</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -819,6 +822,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -838,15 +862,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
@@ -864,11 +879,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -885,15 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -906,27 +933,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,11 +1023,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="953704624"/>
-        <c:axId val="953695376"/>
+        <c:axId val="613484560"/>
+        <c:axId val="613495440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="953704624"/>
+        <c:axId val="613484560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="953695376"/>
+        <c:crossAx val="613495440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="953695376"/>
+        <c:axId val="613495440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,14 +1056,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="953704624"/>
+        <c:crossAx val="613484560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1121,7 +1126,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1152,9 +1157,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 2'!$H$10:$J$10</c:f>
+              <c:f>'Sprint 2'!$H$10:$K$10</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Kamis</c:v>
                 </c:pt>
@@ -1164,15 +1169,18 @@
                 <c:pt idx="2">
                   <c:v>Sabtu</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Minggu</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$H$19:$J$19</c:f>
+              <c:f>'Sprint 2'!$H$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>115</c:v>
                 </c:pt>
@@ -1180,6 +1188,9 @@
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
@@ -1197,11 +1208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="953708432"/>
-        <c:axId val="953560048"/>
+        <c:axId val="612826176"/>
+        <c:axId val="612828896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="953708432"/>
+        <c:axId val="612826176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,7 +1255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="953560048"/>
+        <c:crossAx val="612828896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1252,7 +1263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="953560048"/>
+        <c:axId val="612828896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="953708432"/>
+        <c:crossAx val="612826176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1316,7 +1327,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1935,19 +1946,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2261,44 +2272,44 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -2377,32 +2388,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -2444,13 +2455,13 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="12" t="s">
         <v>1</v>
       </c>
@@ -2470,13 +2481,13 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="8">
         <v>20</v>
       </c>
@@ -2496,13 +2507,13 @@
     </row>
     <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="15">
         <v>30</v>
       </c>
@@ -2522,13 +2533,13 @@
     </row>
     <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="9">
         <v>35</v>
       </c>
@@ -2548,13 +2559,13 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="8">
         <v>35</v>
       </c>
@@ -2573,13 +2584,13 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="8">
         <v>15</v>
       </c>
@@ -2591,13 +2602,13 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="8">
         <v>40</v>
       </c>
@@ -2667,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,19 +2709,19 @@
       <c r="W2" s="31"/>
     </row>
     <row r="3" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
@@ -2724,17 +2735,17 @@
       <c r="W3" s="31"/>
     </row>
     <row r="4" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
@@ -2826,13 +2837,13 @@
     </row>
     <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="28" t="s">
         <v>15</v>
       </c>
@@ -2842,15 +2853,18 @@
       <c r="J10" s="30" t="s">
         <v>17</v>
       </c>
+      <c r="K10" s="36" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="18">
         <v>20</v>
       </c>
@@ -2860,15 +2874,18 @@
       <c r="J11" s="20">
         <v>0</v>
       </c>
+      <c r="K11" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="21">
         <v>35</v>
       </c>
@@ -2876,17 +2893,20 @@
         <v>30</v>
       </c>
       <c r="J12" s="23">
+        <v>20</v>
+      </c>
+      <c r="K12" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="21">
         <v>30</v>
       </c>
@@ -2896,15 +2916,18 @@
       <c r="J13" s="23">
         <v>0</v>
       </c>
+      <c r="K13" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="21">
         <v>30</v>
       </c>
@@ -2912,17 +2935,20 @@
         <v>20</v>
       </c>
       <c r="J14" s="23">
+        <v>25</v>
+      </c>
+      <c r="K14" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="21">
         <v>0</v>
       </c>
@@ -2930,17 +2956,20 @@
         <v>35</v>
       </c>
       <c r="J15" s="23">
+        <v>30</v>
+      </c>
+      <c r="K15" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="35">
         <v>0</v>
       </c>
@@ -2948,17 +2977,20 @@
         <v>30</v>
       </c>
       <c r="J16" s="23">
+        <v>15</v>
+      </c>
+      <c r="K16" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="56" t="s">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="35">
         <v>0</v>
       </c>
@@ -2966,17 +2998,20 @@
         <v>0</v>
       </c>
       <c r="J17" s="23">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="53" t="s">
+    <row r="18" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="32">
         <v>0</v>
       </c>
@@ -2984,10 +3019,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" s="34">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -3005,10 +3043,14 @@
       </c>
       <c r="J19" s="27">
         <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="K19" s="27">
+        <f t="shared" ref="K19" si="1">SUM(K11:K18)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>6</v>
       </c>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albert\Desktop\b\KomponenKomputer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="4" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Sprint 2" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Nama Backlog</t>
   </si>
@@ -145,13 +140,25 @@
   </si>
   <si>
     <t>Minggu</t>
+  </si>
+  <si>
+    <t>Burndown Chart Sprint 3</t>
+  </si>
+  <si>
+    <t>Generasi Komputer</t>
+  </si>
+  <si>
+    <t>Jenis Software : Perangkat Lunak Sistem</t>
+  </si>
+  <si>
+    <t>Jenis Software : Real Time Software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -713,6 +720,97 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -723,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -825,6 +923,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,6 +1040,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,24 +1114,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="id-ID"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1012,66 +1161,50 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="613484560"/>
-        <c:axId val="613495440"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="146521088"/>
+        <c:axId val="164909824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="613484560"/>
+        <c:axId val="146521088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613495440"/>
+        <c:crossAx val="164909824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613495440"/>
+        <c:axId val="164909824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613484560"/>
+        <c:crossAx val="146521088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1079,21 +1212,10 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="id-ID"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1118,16 +1240,14 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1196,31 +1316,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="612826176"/>
-        <c:axId val="612828896"/>
+        <c:axId val="165263232"/>
+        <c:axId val="165264768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="612826176"/>
+        <c:axId val="165263232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1252,22 +1361,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612828896"/>
+        <c:crossAx val="165264768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="612828896"/>
+        <c:axId val="165264768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1285,7 +1392,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1311,10 +1417,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612826176"/>
+        <c:crossAx val="165263232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1328,7 +1434,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1352,9 +1457,104 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 3'!$H$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$H$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="176293760"/>
+        <c:axId val="176383488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="176293760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176383488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="176383488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176293760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1976,6 +2176,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2019,7 +2254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2051,10 +2286,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2086,7 +2320,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2262,56 +2495,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="37" t="s">
+    <row r="2" spans="3:19">
+      <c r="C2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-    </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-    </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+    </row>
+    <row r="3" spans="3:19">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+    </row>
+    <row r="5" spans="3:19">
       <c r="C5" t="s">
         <v>27</v>
       </c>
@@ -2322,7 +2555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:19">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -2333,7 +2566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:19">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -2344,7 +2577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:19">
       <c r="C8" t="s">
         <v>35</v>
       </c>
@@ -2355,7 +2588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:19">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -2375,47 +2608,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L4"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:17">
+      <c r="B3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -2435,7 +2668,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="15.75" thickBot="1">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2453,15 +2686,15 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17">
       <c r="B10" s="1"/>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="12" t="s">
         <v>1</v>
       </c>
@@ -2479,15 +2712,15 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="B11" s="1"/>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="8">
         <v>20</v>
       </c>
@@ -2505,15 +2738,15 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="15" customHeight="1">
       <c r="B12" s="1"/>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="15">
         <v>30</v>
       </c>
@@ -2531,15 +2764,15 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="15.75" customHeight="1">
       <c r="B13" s="1"/>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="9">
         <v>35</v>
       </c>
@@ -2557,15 +2790,15 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17">
       <c r="B14" s="1"/>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="8">
         <v>35</v>
       </c>
@@ -2583,14 +2816,14 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="40" t="s">
+    <row r="15" spans="2:17">
+      <c r="C15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="8">
         <v>15</v>
       </c>
@@ -2601,14 +2834,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="43" t="s">
+    <row r="16" spans="2:17" ht="15.75" thickBot="1">
+      <c r="C16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="8">
         <v>40</v>
       </c>
@@ -2619,7 +2852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" ht="15.75" thickBot="1">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2640,7 +2873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10">
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2652,7 +2885,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3">
       <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
@@ -2675,16 +2908,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="N8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="14.45" customHeight="1">
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -2708,20 +2941,20 @@
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
     </row>
-    <row r="3" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:23" ht="14.45" customHeight="1">
+      <c r="B3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
@@ -2734,18 +2967,18 @@
       <c r="V3" s="31"/>
       <c r="W3" s="31"/>
     </row>
-    <row r="4" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
+    <row r="4" spans="2:23" ht="14.45" customHeight="1">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
@@ -2758,7 +2991,7 @@
       <c r="V4" s="31"/>
       <c r="W4" s="31"/>
     </row>
-    <row r="5" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="14.45" customHeight="1">
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -2782,7 +3015,7 @@
       <c r="V5" s="31"/>
       <c r="W5" s="31"/>
     </row>
-    <row r="6" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" ht="14.45" customHeight="1">
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -2806,7 +3039,7 @@
       <c r="V6" s="31"/>
       <c r="W6" s="31"/>
     </row>
-    <row r="7" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" ht="14.45" customHeight="1">
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -2830,20 +3063,20 @@
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23">
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="58" t="s">
+    <row r="9" spans="2:23" ht="15.75" thickBot="1"/>
+    <row r="10" spans="2:23" ht="15.75" thickBot="1">
+      <c r="C10" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="28" t="s">
         <v>15</v>
       </c>
@@ -2857,14 +3090,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="61" t="s">
+    <row r="11" spans="2:23">
+      <c r="C11" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="18">
         <v>20</v>
       </c>
@@ -2878,14 +3111,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="55" t="s">
+    <row r="12" spans="2:23" ht="15" customHeight="1">
+      <c r="C12" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="21">
         <v>35</v>
       </c>
@@ -2899,14 +3132,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="70" t="s">
+    <row r="13" spans="2:23">
+      <c r="C13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="21">
         <v>30</v>
       </c>
@@ -2920,14 +3153,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="55" t="s">
+    <row r="14" spans="2:23">
+      <c r="C14" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="21">
         <v>30</v>
       </c>
@@ -2941,14 +3174,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="73" t="s">
+    <row r="15" spans="2:23">
+      <c r="C15" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="21">
         <v>0</v>
       </c>
@@ -2962,14 +3195,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C16" s="76" t="s">
+    <row r="16" spans="2:23">
+      <c r="C16" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="35">
         <v>0</v>
       </c>
@@ -2983,14 +3216,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="67" t="s">
+    <row r="17" spans="3:11">
+      <c r="C17" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="35">
         <v>0</v>
       </c>
@@ -3004,14 +3237,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="64" t="s">
+    <row r="18" spans="3:11" ht="15.75" thickBot="1">
+      <c r="C18" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="32">
         <v>0</v>
       </c>
@@ -3025,7 +3258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" ht="15.75" thickBot="1">
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -3050,12 +3283,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11">
       <c r="C22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3">
       <c r="C40" s="25" t="s">
         <v>7</v>
       </c>
@@ -3079,13 +3312,349 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:V39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:22" ht="14.45" customHeight="1">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+    </row>
+    <row r="3" spans="2:22" ht="14.45" customHeight="1">
+      <c r="B3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+    </row>
+    <row r="4" spans="2:22" ht="14.45" customHeight="1">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+    </row>
+    <row r="5" spans="2:22" ht="14.45" customHeight="1">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+    </row>
+    <row r="6" spans="2:22" ht="14.45" customHeight="1">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+    </row>
+    <row r="7" spans="2:22" ht="14.45" customHeight="1">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="15.75" thickBot="1"/>
+    <row r="10" spans="2:22">
+      <c r="C10" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="C11" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="35">
+        <v>25</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="C12" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="35">
+        <v>30</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="C13" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="35">
+        <v>15</v>
+      </c>
+      <c r="I13" s="22">
+        <v>15</v>
+      </c>
+      <c r="J13" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="C14" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="35">
+        <v>25</v>
+      </c>
+      <c r="I14" s="22">
+        <v>20</v>
+      </c>
+      <c r="J14" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="C15" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
+        <v>60</v>
+      </c>
+      <c r="J15" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="C16" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <v>35</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C17" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="83">
+        <v>0</v>
+      </c>
+      <c r="I17" s="84">
+        <v>0</v>
+      </c>
+      <c r="J17" s="85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="26">
+        <f>SUM(H11:H17)</f>
+        <v>95</v>
+      </c>
+      <c r="I18" s="26">
+        <f>SUM(I11:I17)</f>
+        <v>130</v>
+      </c>
+      <c r="J18" s="82">
+        <f>SUM(J11:J17)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RickyWijaya.WeN\Desktop\tugas tkppl\KomponenKomputer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="4" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Nama Backlog</t>
   </si>
@@ -152,13 +158,31 @@
   </si>
   <si>
     <t>Jenis Software : Real Time Software</t>
+  </si>
+  <si>
+    <t>Burndown Chart Sprint 4</t>
+  </si>
+  <si>
+    <t>Jumat</t>
+  </si>
+  <si>
+    <t>Contoh Hardware : Output Device</t>
+  </si>
+  <si>
+    <t>Generasi Komputer Part 2</t>
+  </si>
+  <si>
+    <t>Generasi Komputer Part 3</t>
+  </si>
+  <si>
+    <t>Penjelasan Secara Umum : Jenis-Jenis Software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -932,6 +956,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,27 +1097,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1070,13 +1106,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1085,13 +1121,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1114,12 +1159,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="id-ID"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1161,36 +1218,51 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
-        <c:axId val="146521088"/>
-        <c:axId val="164909824"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="298289568"/>
+        <c:axId val="298290352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146521088"/>
+        <c:axId val="298289568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164909824"/>
+        <c:crossAx val="298290352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164909824"/>
+        <c:axId val="298290352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146521088"/>
+        <c:crossAx val="298289568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1198,9 +1270,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1212,10 +1286,21 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="id-ID"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1240,14 +1325,16 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1316,20 +1403,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="165263232"/>
-        <c:axId val="165264768"/>
+        <c:smooth val="0"/>
+        <c:axId val="304678768"/>
+        <c:axId val="304679944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165263232"/>
+        <c:axId val="304678768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1361,20 +1459,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165264768"/>
+        <c:crossAx val="304679944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165264768"/>
+        <c:axId val="304679944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1392,6 +1492,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1417,10 +1518,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165263232"/>
+        <c:crossAx val="304678768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1434,6 +1535,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1457,7 +1559,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1470,12 +1572,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="id-ID"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1517,34 +1631,51 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="176293760"/>
-        <c:axId val="176383488"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="438605040"/>
+        <c:axId val="438605824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176293760"/>
+        <c:axId val="438605040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176383488"/>
+        <c:crossAx val="438605824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176383488"/>
+        <c:axId val="438605824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176293760"/>
+        <c:crossAx val="438605040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1552,9 +1683,282 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 4'!$H$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$H$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="134147488"/>
+        <c:axId val="134143568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="134147488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0;\-#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134143568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="20"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="134143568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134147488"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1604,7 +2008,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1712,6 +2116,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1722,6 +2131,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1753,6 +2167,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2211,6 +2628,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2254,7 +2706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2286,9 +2738,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2320,6 +2773,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2495,56 +2949,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:19">
-      <c r="C2" s="40" t="s">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-    </row>
-    <row r="3" spans="3:19">
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-    </row>
-    <row r="5" spans="3:19">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>27</v>
       </c>
@@ -2555,7 +3009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="3:19">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -2566,7 +3020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="3:19">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -2577,7 +3031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="3:19">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>35</v>
       </c>
@@ -2588,7 +3042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="3:19">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -2608,47 +3062,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="8" spans="2:17">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -2668,7 +3122,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:17" ht="15.75" thickBot="1">
+    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2686,15 +3140,15 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="12" t="s">
         <v>1</v>
       </c>
@@ -2712,15 +3166,15 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="8">
         <v>20</v>
       </c>
@@ -2738,15 +3192,15 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="2:17" ht="15" customHeight="1">
+    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="15">
         <v>30</v>
       </c>
@@ -2764,15 +3218,15 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="2:17" ht="15.75" customHeight="1">
+    <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="9">
         <v>35</v>
       </c>
@@ -2790,15 +3244,15 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="8">
         <v>35</v>
       </c>
@@ -2816,14 +3270,14 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="2:17">
-      <c r="C15" s="43" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="8">
         <v>15</v>
       </c>
@@ -2834,14 +3288,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="15.75" thickBot="1">
-      <c r="C16" s="46" t="s">
+    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="8">
         <v>40</v>
       </c>
@@ -2852,7 +3306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="15.75" thickBot="1">
+    <row r="17" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2873,7 +3327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2885,7 +3339,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
@@ -2908,16 +3362,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="N8" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23" ht="14.45" customHeight="1">
+    <row r="2" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -2941,20 +3395,20 @@
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
     </row>
-    <row r="3" spans="2:23" ht="14.45" customHeight="1">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
@@ -2967,18 +3421,18 @@
       <c r="V3" s="31"/>
       <c r="W3" s="31"/>
     </row>
-    <row r="4" spans="2:23" ht="14.45" customHeight="1">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+    <row r="4" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
@@ -2991,7 +3445,7 @@
       <c r="V4" s="31"/>
       <c r="W4" s="31"/>
     </row>
-    <row r="5" spans="2:23" ht="14.45" customHeight="1">
+    <row r="5" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -3015,7 +3469,7 @@
       <c r="V5" s="31"/>
       <c r="W5" s="31"/>
     </row>
-    <row r="6" spans="2:23" ht="14.45" customHeight="1">
+    <row r="6" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -3039,7 +3493,7 @@
       <c r="V6" s="31"/>
       <c r="W6" s="31"/>
     </row>
-    <row r="7" spans="2:23" ht="14.45" customHeight="1">
+    <row r="7" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -3063,20 +3517,20 @@
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="15.75" thickBot="1"/>
-    <row r="10" spans="2:23" ht="15.75" thickBot="1">
-      <c r="C10" s="61" t="s">
+    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="28" t="s">
         <v>15</v>
       </c>
@@ -3090,14 +3544,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:23">
-      <c r="C11" s="64" t="s">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="18">
         <v>20</v>
       </c>
@@ -3111,14 +3565,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="15" customHeight="1">
-      <c r="C12" s="58" t="s">
+    <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="21">
         <v>35</v>
       </c>
@@ -3132,14 +3586,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:23">
-      <c r="C13" s="73" t="s">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="21">
         <v>30</v>
       </c>
@@ -3153,14 +3607,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23">
-      <c r="C14" s="58" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="21">
         <v>30</v>
       </c>
@@ -3174,14 +3628,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:23">
-      <c r="C15" s="76" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="21">
         <v>0</v>
       </c>
@@ -3195,14 +3649,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23">
-      <c r="C16" s="79" t="s">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="35">
         <v>0</v>
       </c>
@@ -3216,14 +3670,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="70" t="s">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="35">
         <v>0</v>
       </c>
@@ -3237,14 +3691,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C18" s="67" t="s">
+    <row r="18" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="32">
         <v>0</v>
       </c>
@@ -3258,7 +3712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="15.75" thickBot="1">
+    <row r="19" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -3283,12 +3737,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="3:11">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="25" t="s">
         <v>7</v>
       </c>
@@ -3312,16 +3766,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="14.45" customHeight="1">
+    <row r="2" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -3344,19 +3801,19 @@
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
     </row>
-    <row r="3" spans="2:22" ht="14.45" customHeight="1">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
@@ -3369,17 +3826,17 @@
       <c r="U3" s="31"/>
       <c r="V3" s="31"/>
     </row>
-    <row r="4" spans="2:22" ht="14.45" customHeight="1">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+    <row r="4" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
@@ -3392,7 +3849,7 @@
       <c r="U4" s="31"/>
       <c r="V4" s="31"/>
     </row>
-    <row r="5" spans="2:22" ht="14.45" customHeight="1">
+    <row r="5" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -3415,7 +3872,7 @@
       <c r="U5" s="31"/>
       <c r="V5" s="31"/>
     </row>
-    <row r="6" spans="2:22" ht="14.45" customHeight="1">
+    <row r="6" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -3438,7 +3895,7 @@
       <c r="U6" s="31"/>
       <c r="V6" s="31"/>
     </row>
-    <row r="7" spans="2:22" ht="14.45" customHeight="1">
+    <row r="7" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -3461,20 +3918,20 @@
       <c r="U7" s="31"/>
       <c r="V7" s="31"/>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="15.75" thickBot="1"/>
-    <row r="10" spans="2:22">
-      <c r="C10" s="61" t="s">
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="37" t="s">
         <v>1</v>
       </c>
@@ -3485,14 +3942,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
-      <c r="C11" s="89" t="s">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
       <c r="H11" s="35">
         <v>25</v>
       </c>
@@ -3503,14 +3960,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
-      <c r="C12" s="92" t="s">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="94"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
       <c r="H12" s="35">
         <v>30</v>
       </c>
@@ -3521,14 +3978,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
-      <c r="C13" s="95" t="s">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="35">
         <v>15</v>
       </c>
@@ -3539,14 +3996,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
-      <c r="C14" s="98" t="s">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="35">
         <v>25</v>
       </c>
@@ -3557,14 +4014,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
-      <c r="C15" s="101" t="s">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="35">
         <v>0</v>
       </c>
@@ -3575,14 +4032,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
-      <c r="C16" s="70" t="s">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="35">
         <v>0</v>
       </c>
@@ -3593,25 +4050,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C17" s="86" t="s">
+    <row r="17" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="83">
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="44">
         <v>0</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="45">
         <v>0</v>
       </c>
-      <c r="J17" s="85">
+      <c r="J17" s="46">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="15.75" thickBot="1">
+    <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -3627,25 +4084,23 @@
         <f>SUM(I11:I17)</f>
         <v>130</v>
       </c>
-      <c r="J18" s="82">
+      <c r="J18" s="43">
         <f>SUM(J11:J17)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="25" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C17:G17"/>
@@ -3653,6 +4108,318 @@
     <mergeCell ref="B3:K4"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+    </row>
+    <row r="3" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+    </row>
+    <row r="4" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+    </row>
+    <row r="5" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+    </row>
+    <row r="6" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+    </row>
+    <row r="7" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="35">
+        <v>25</v>
+      </c>
+      <c r="I11" s="22">
+        <v>40</v>
+      </c>
+      <c r="J11" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="35">
+        <v>10</v>
+      </c>
+      <c r="I12" s="22">
+        <v>5</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="35">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <v>10</v>
+      </c>
+      <c r="J13" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="35">
+        <v>10</v>
+      </c>
+      <c r="I14" s="22">
+        <v>10</v>
+      </c>
+      <c r="J14" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="47">
+        <v>25</v>
+      </c>
+      <c r="I15" s="48">
+        <v>10</v>
+      </c>
+      <c r="J15" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="50">
+        <f>SUM(H11:H15)</f>
+        <v>70</v>
+      </c>
+      <c r="I16" s="50">
+        <f>SUM(I11:I15)</f>
+        <v>75</v>
+      </c>
+      <c r="J16" s="27">
+        <f>SUM(J11:J15)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RickyWijaya.WeN\Desktop\tugas tkppl\KomponenKomputer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="4" r:id="rId1"/>
@@ -17,13 +12,14 @@
     <sheet name="Sprint 2" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId4"/>
     <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Nama Backlog</t>
   </si>
@@ -176,6 +172,15 @@
   </si>
   <si>
     <t>Penjelasan Secara Umum : Jenis-Jenis Software</t>
+  </si>
+  <si>
+    <t>Burndown Chart Sprint 5</t>
+  </si>
+  <si>
+    <t>Contoh Brainware</t>
+  </si>
+  <si>
+    <t>Contoh Software</t>
   </si>
 </sst>
 </file>
@@ -245,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -838,6 +843,89 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -845,7 +933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1097,6 +1185,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,31 +1214,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1137,6 +1225,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1228,12 +1337,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="298289568"/>
-        <c:axId val="298290352"/>
+        <c:axId val="95024256"/>
+        <c:axId val="95025792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="298289568"/>
+        <c:axId val="95024256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298290352"/>
+        <c:crossAx val="95025792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1251,7 +1361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298290352"/>
+        <c:axId val="95025792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,7 +1372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298289568"/>
+        <c:crossAx val="95024256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1415,11 +1525,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304678768"/>
-        <c:axId val="304679944"/>
+        <c:axId val="95799552"/>
+        <c:axId val="95801728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="304678768"/>
+        <c:axId val="95799552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1462,7 +1572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304679944"/>
+        <c:crossAx val="95801728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1470,7 +1580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304679944"/>
+        <c:axId val="95801728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304678768"/>
+        <c:crossAx val="95799552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,12 +1751,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438605040"/>
-        <c:axId val="438605824"/>
+        <c:axId val="95875456"/>
+        <c:axId val="95876992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="438605040"/>
+        <c:axId val="95875456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,7 +1767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438605824"/>
+        <c:crossAx val="95876992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1664,7 +1775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438605824"/>
+        <c:axId val="95876992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438605040"/>
+        <c:crossAx val="95875456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1711,37 +1822,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1751,15 +1831,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1808,157 +1879,54 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134147488"/>
-        <c:axId val="134143568"/>
+        <c:axId val="56172544"/>
+        <c:axId val="56174080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134147488"/>
+        <c:axId val="56172544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0;\-#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="134143568"/>
+        <c:crossAx val="56174080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="20"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134143568"/>
+        <c:axId val="56174080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="134147488"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="56172544"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1967,560 +1935,123 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 5'!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 5'!$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93063424"/>
+        <c:axId val="93217152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93063424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93217152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93217152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93063424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2633,19 +2164,54 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2706,7 +2272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2741,7 +2307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3365,7 +2931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -3769,7 +3335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -3943,13 +3509,13 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
       <c r="H11" s="35">
         <v>25</v>
       </c>
@@ -3979,13 +3545,13 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
       <c r="H13" s="35">
         <v>15</v>
       </c>
@@ -3997,13 +3563,13 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="35">
         <v>25</v>
       </c>
@@ -4051,13 +3617,13 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="107"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="101"/>
       <c r="H17" s="44">
         <v>0</v>
       </c>
@@ -4120,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4291,13 +3857,13 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
       <c r="H11" s="35">
         <v>25</v>
       </c>
@@ -4327,13 +3893,13 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
       <c r="H13" s="35">
         <v>0</v>
       </c>
@@ -4345,13 +3911,13 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="35">
         <v>10</v>
       </c>
@@ -4424,4 +3990,284 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+    </row>
+    <row r="3" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+    </row>
+    <row r="4" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+    </row>
+    <row r="5" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+    </row>
+    <row r="6" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+    </row>
+    <row r="7" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="111" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="112">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="113">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="27">
+        <f>SUM(H11:H16)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>